--- a/resultados/exploracion/ventas_perdidas.xlsx
+++ b/resultados/exploracion/ventas_perdidas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,771 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EstFija10</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>14350727.08248009</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EstFija10</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>36366780</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EstFija10</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EstFija20</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18187715.72795791</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EstFija20</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>36366780</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>EstFija20</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EstFija30</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>21510299.12059158</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>EstFija30</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>36366780</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EstFija30</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>55951</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FullFlex</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2562355.240452336</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FullFlex</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>24547532</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FullFlex</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ZEsp2Prod</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17779251.05654201</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ZEsp2Prod</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>24547532</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ZEsp2Prod</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3286</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>girardot_espinal</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>16262770.48257143</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>girardot_espinal</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>24547532</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>girardot_espinal</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>48090</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Bogota_Fusa</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16872491.39971429</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Bogota_Fusa</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>24547532</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Bogota_Fusa</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>95250</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Cali_Jamundi</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>16496126.88285714</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Cali_Jamundi</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>24547532</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Cali_Jamundi</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>74175</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ibague_Armenia</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>16187066.50628571</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ibague_Armenia</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>24547532</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ibague_Armenia</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Palmira_Caloto</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>15930486.47785714</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Palmira_Caloto</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>24547532</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Palmira_Caloto</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Villeta_Bogota</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>16583506.03185714</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Villeta_Bogota</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>24547532</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Villeta_Bogota</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>94014</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Honda_Mariquita</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>16181930.99</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Honda_Mariquita</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>24547532</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Honda_Mariquita</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>54198</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Madrid_Girardot</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>16452881.6457976</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Madrid_Girardot</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>24547532</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Madrid_Girardot</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>54198</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Itagui_La_Felisa</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>15173665.95557143</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Itagui_La_Felisa</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>24547532</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Itagui_La_Felisa</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>51824</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>La_Felisa_Cartago</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>15815153.45014286</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>La_Felisa_Cartago</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>24547532</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>La_Felisa_Cartago</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>44804</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Manizales_Pereira</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>16476009.76042857</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Manizales_Pereira</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>24547532</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Manizales_Pereira</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>87438</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Mariquita_Manizales</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>16149839.92528571</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Mariquita_Manizales</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>24547532</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Mariquita_Manizales</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>65953</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
